--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>858359.9918571389</v>
+        <v>908194.6561331911</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245799</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484454</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7371249.41762793</v>
+        <v>7383875.681164852</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>345.0468477039751</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>286.2721000371766</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -874,16 +874,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>203.5947054259979</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>201.9979511962239</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>325.6397206308881</v>
       </c>
       <c r="W5" t="n">
-        <v>327.6755980356106</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>12.35204183359006</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>116.0434079398616</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1105,7 +1105,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1117,7 +1117,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1133,25 +1133,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>98.24159278851357</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>313.4423583424372</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1196,10 +1196,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>119.8634463900538</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>62.37342505028329</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1379,13 +1379,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>155.5776225602621</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>18.22772027659471</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1540,7 +1540,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170526</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>32.67077719907196</v>
       </c>
       <c r="T14" t="n">
-        <v>32.67077719907016</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068454</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>420.1696338988308</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>33.08339867820333</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>163.5395542426772</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>129.3727203283462</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225756</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2482,7 +2482,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>28.4682460490447</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2533,13 +2533,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>139.9514671241874</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120.1838601509835</v>
+        <v>50.30825486907179</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2956,7 +2956,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>86.27769679771754</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2968,7 +2968,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225773</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930767003</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3284,7 +3284,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791321049</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946039</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3664,7 +3664,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>20.56754178381451</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3676,7 +3676,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3721,7 +3721,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>199.5895679887574</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3898,7 +3898,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>89.05336748755465</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3992,7 +3992,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>45.76594660771076</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946038</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4198,7 +4198,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>1381.178101957272</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1347.076033181099</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>911.1662483555438</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>477.391503513839</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304673</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304673</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304673</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031046</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797685</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.21016275628</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693174</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693174</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2112.490051010191</v>
       </c>
       <c r="V2" t="n">
-        <v>1408.019692669128</v>
+        <v>1749.873100944017</v>
       </c>
       <c r="W2" t="n">
-        <v>1003.164238080161</v>
+        <v>1749.058050395455</v>
       </c>
       <c r="X2" t="n">
-        <v>584.0217746594717</v>
+        <v>1733.955991015169</v>
       </c>
       <c r="Y2" t="n">
-        <v>175.7356509591251</v>
+        <v>1729.710271355227</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397426</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064433</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>428.3837849350358</v>
+        <v>568.1340538544683</v>
       </c>
       <c r="C4" t="n">
-        <v>428.3837849350358</v>
+        <v>395.5723423376933</v>
       </c>
       <c r="D4" t="n">
-        <v>262.5057921365585</v>
+        <v>395.5723423376933</v>
       </c>
       <c r="E4" t="n">
-        <v>262.5057921365585</v>
+        <v>225.8143385884305</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>200.0427573423623</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>618.2526391103233</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1077.736506291236</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1519.995309448881</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1939.664558674662</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645004</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214709</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2274.705037512705</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>2028.82559109116</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.45316161735</v>
+        <v>1750.392590344265</v>
       </c>
       <c r="V4" t="n">
-        <v>945.8019440153319</v>
+        <v>1463.437082214696</v>
       </c>
       <c r="W4" t="n">
-        <v>673.7755396016233</v>
+        <v>1191.410677800988</v>
       </c>
       <c r="X4" t="n">
-        <v>428.3837849350358</v>
+        <v>987.3723432593472</v>
       </c>
       <c r="Y4" t="n">
-        <v>428.3837849350358</v>
+        <v>759.9526725734554</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.8932738874814</v>
+        <v>1674.602188492497</v>
       </c>
       <c r="C5" t="n">
-        <v>119.7912051113087</v>
+        <v>1236.459715675921</v>
       </c>
       <c r="D5" t="n">
-        <v>87.92182432615731</v>
+        <v>800.5499308503653</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1697.183430080417</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>2121.064588566196</v>
       </c>
       <c r="W5" t="n">
-        <v>1003.581027453021</v>
+        <v>2120.249538017633</v>
       </c>
       <c r="X5" t="n">
-        <v>584.4385640323317</v>
+        <v>2105.147478637348</v>
       </c>
       <c r="Y5" t="n">
-        <v>580.1928443723891</v>
+        <v>2100.901758977405</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>451.6896561077215</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>439.2128461748023</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="D7" t="n">
-        <v>439.2128461748023</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="E7" t="n">
-        <v>439.2128461748023</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>262.5057921365585</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1146.964903885608</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1567.017802830512</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1516.524240083786</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1238.091239336891</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>951.1357312073217</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>679.1093267936133</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>679.1093267936133</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>451.6896561077215</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1029.517422785771</v>
+        <v>489.9592645846402</v>
       </c>
       <c r="C8" t="n">
-        <v>930.2834906761614</v>
+        <v>455.8571958084675</v>
       </c>
       <c r="D8" t="n">
-        <v>494.3737058506059</v>
+        <v>423.9878150233161</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890106</v>
+        <v>394.2534742220153</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851286</v>
+        <v>370.4264486716271</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851286</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851286</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851286</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851286</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>304.2846042752966</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>759.3373055743932</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>759.3373055743932</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>759.3373055743932</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743932</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.39000687349</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172586</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925643</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925643</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925643</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925643</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1475.979822859469</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1071.124368270503</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1056.022308890217</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1051.776589230275</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498057</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.487219286448</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230039</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851286</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897045</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851828</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842794</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716307</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114682</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503481</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295688</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>379.3569822952339</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>379.3569822952339</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4789894967566</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4789894967566</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="F10" t="n">
-        <v>36.77193545851286</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="G10" t="n">
-        <v>36.77193545851286</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851286</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851286</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232027</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.1100751943383</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>398.1100751943383</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>853.1627764934349</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1295.421579651079</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.897104090969</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061311</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925643</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631015</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.937582929012</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.058136507467</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1133.625135760572</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1070.621676113821</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>798.5952717001128</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>798.5952717001128</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>571.175601014221</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168566</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C11" t="n">
         <v>1814.51439535199</v>
@@ -5024,13 +5024,13 @@
         <v>1378.604610526434</v>
       </c>
       <c r="E11" t="n">
-        <v>944.8298656847292</v>
+        <v>944.8298656847296</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>516.9624360939383</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>115.5646047172022</v>
       </c>
       <c r="H11" t="n">
         <v>97.15276605397516</v>
@@ -5039,25 +5039,25 @@
         <v>96.73597668111516</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>403.2461837293665</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1237.596475687544</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940404</v>
       </c>
       <c r="M11" t="n">
-        <v>2859.155227898998</v>
+        <v>2312.656441940404</v>
       </c>
       <c r="N11" t="n">
-        <v>2859.155227898998</v>
+        <v>2312.656441940404</v>
       </c>
       <c r="O11" t="n">
-        <v>3839.334894469305</v>
+        <v>3292.83610851071</v>
       </c>
       <c r="P11" t="n">
-        <v>4667.644769302701</v>
+        <v>4121.145983344106</v>
       </c>
       <c r="Q11" t="n">
         <v>4667.644769302701</v>
@@ -5075,7 +5075,7 @@
         <v>4273.85743042965</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363476</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
         <v>3506.38502577451</v>
@@ -5121,10 +5121,10 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
         <v>1102.064021433509</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580463</v>
+        <v>806.2298140987278</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412712</v>
+        <v>633.6681025819528</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>467.7901097834755</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935312</v>
+        <v>298.0321060342127</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>121.325051995969</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111506</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="H13" t="n">
         <v>96.73597668111516</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1225.468103503607</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477033</v>
+        <v>998.0484328177149</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062125</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>2085.232711245547</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419993</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578288</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874956</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397516</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>931.0862686392932</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2006.146234892153</v>
       </c>
       <c r="M14" t="n">
-        <v>2859.155227898998</v>
+        <v>2006.146234892153</v>
       </c>
       <c r="N14" t="n">
-        <v>2859.155227898998</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O14" t="n">
-        <v>3839.334894469305</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P14" t="n">
-        <v>4667.644769302701</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302701</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055758</v>
+        <v>4803.798049006191</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.798049006192</v>
+        <v>4803.798049006191</v>
       </c>
       <c r="U14" t="n">
         <v>4544.575746323208</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>4181.958796257034</v>
       </c>
       <c r="W14" t="n">
         <v>3777.103341668068</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3357.960878247378</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547033</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5419,19 +5419,19 @@
         <v>608.792309442794</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935312</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F16" t="n">
         <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111506</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
         <v>183.315661845805</v>
@@ -5440,10 +5440,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5461,16 +5461,16 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
         <v>1611.862057829513</v>
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2511.879170851549</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C17" t="n">
-        <v>2073.736698034973</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6807519874951</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5519,46 +5519,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2312.656441940404</v>
+        <v>3598.448757555621</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940404</v>
+        <v>3598.448757555621</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.83610851071</v>
+        <v>3598.448757555621</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344106</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302701</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239595</v>
+        <v>4803.381259633331</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112633</v>
+        <v>4803.381259633331</v>
       </c>
       <c r="U17" t="n">
-        <v>4533.079733112633</v>
+        <v>4544.158956950348</v>
       </c>
       <c r="V17" t="n">
-        <v>4170.46278304646</v>
+        <v>4181.542006884174</v>
       </c>
       <c r="W17" t="n">
-        <v>3765.607328457493</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X17" t="n">
-        <v>3346.464865036804</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y17" t="n">
-        <v>2938.178741336457</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2320137580463</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6703022412712</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D19" t="n">
         <v>608.792309442794</v>
       </c>
       <c r="E19" t="n">
-        <v>439.0343056935312</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
         <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111506</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J19" t="n">
         <v>183.315661845805</v>
@@ -5677,10 +5677,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
@@ -5716,7 +5716,7 @@
         <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.050632477033</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2252.656868168566</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.51439535199</v>
+        <v>1814.514395351989</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526434</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E20" t="n">
-        <v>944.8298656847292</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>516.962436093937</v>
+        <v>787.6807519874949</v>
       </c>
       <c r="G20" t="n">
-        <v>386.282920610759</v>
+        <v>386.2829206107588</v>
       </c>
       <c r="H20" t="n">
         <v>97.15276605397516</v>
@@ -5786,16 +5786,16 @@
         <v>4273.85743042965</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363477</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.38502577451</v>
+        <v>3506.385025774509</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353821</v>
+        <v>3087.24256235382</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653474</v>
+        <v>2678.956438653473</v>
       </c>
     </row>
     <row r="21">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580463</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C22" t="n">
         <v>774.6703022412713</v>
@@ -5893,13 +5893,13 @@
         <v>608.792309442794</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935312</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F22" t="n">
         <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="H22" t="n">
         <v>96.73597668111516</v>
@@ -5941,7 +5941,7 @@
         <v>2449.276971119685</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.84397037279</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V22" t="n">
         <v>1883.888462243221</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716172</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731399</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V25" t="n">
-        <v>1872.583694701249</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1600.55729028754</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6236,10 +6236,10 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C28" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D28" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E28" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461862</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109383</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.710185817961</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C31" t="n">
-        <v>926.1484743011864</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>760.2704815027091</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V31" t="n">
-        <v>2035.366634303136</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W31" t="n">
-        <v>1763.340229889428</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X31" t="n">
-        <v>1517.94847522284</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y31" t="n">
-        <v>1290.528804536949</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6844,7 +6844,7 @@
         <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449518</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6862,7 +6862,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
         <v>1341.292728955479</v>
@@ -6883,16 +6883,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6923,64 +6923,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436403</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7120,7 +7120,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
         <v>2454.80183470935</v>
@@ -7154,16 +7154,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,31 +7172,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7211,13 +7211,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1036.21630281531</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C40" t="n">
-        <v>863.6545912985343</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7342,7 +7342,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O40" t="n">
         <v>2203.220781338905</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878952</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2538.261260176949</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2259.828259430054</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1972.872751300484</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1700.846346886776</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X40" t="n">
-        <v>1455.454592220188</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y40" t="n">
-        <v>1228.034921534297</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
         <v>391.8077842004234</v>
@@ -7418,43 +7418,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1008.757289365886</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7570,7 +7570,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
         <v>881.8088617745661</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1945.413737851061</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1673.387333437352</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1427.995578770765</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1200.575908084873</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7676,22 +7676,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7807,7 +7807,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
         <v>881.8088617745661</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1454.96690046523</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1227.547229779339</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.841056877334</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803904</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.47818213854839</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.46007352745</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>131.4804315655613</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>270.2148169866503</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314107</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314107</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314108</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,16 +8614,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314107</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>27.75305498978742</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457085</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8696,7 +8696,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>421.9740460140688</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8769,13 +8769,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>421.9740460140688</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>309.6062697457101</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8945,7 +8945,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,19 +9167,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>955.8742281294876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>527.9769957459462</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9884,13 +9884,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>833.0630236930783</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>268.0111327346222</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>268.0111327346212</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>50.1445778789294</v>
       </c>
       <c r="T14" t="n">
-        <v>185.1957776566216</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>11.38105307846911</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>49.73195639979803</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>268.0111327346227</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>268.0111327346225</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627257</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>144.1344859240865</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69.7165723808137</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>81.78272691405257</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24886,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>143.651671086678</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>69.716572380814</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>195.0325855607192</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>144.1344859240865</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>642237.3940619323</v>
+        <v>646125.1001226073</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>642237.3940619323</v>
+        <v>647225.9948849992</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>642962.5159746793</v>
+        <v>647225.9948849992</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>619779.9841556788</v>
+        <v>619779.9841556789</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>619779.9841556788</v>
+        <v>619779.9841556789</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>645935.4077208092</v>
+        <v>645935.4077208091</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>645935.4077208091</v>
+        <v>645935.407720809</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>645935.4077208092</v>
+        <v>645935.4077208091</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26320,16 @@
         <v>308284.7089369848</v>
       </c>
       <c r="E2" t="n">
-        <v>290676.2413337139</v>
+        <v>290676.2413337138</v>
       </c>
       <c r="F2" t="n">
-        <v>290676.2413337138</v>
+        <v>290676.241333714</v>
       </c>
       <c r="G2" t="n">
         <v>290676.2413337139</v>
       </c>
       <c r="H2" t="n">
-        <v>290676.2413337138</v>
+        <v>290676.2413337139</v>
       </c>
       <c r="I2" t="n">
         <v>302943.1108789775</v>
@@ -26344,7 +26344,7 @@
         <v>302943.1108789775</v>
       </c>
       <c r="M2" t="n">
-        <v>302943.1108789776</v>
+        <v>302943.1108789775</v>
       </c>
       <c r="N2" t="n">
         <v>302943.1108789776</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039028</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390672</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.8066720031</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520269</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>18364.71563283958</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856132</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784519</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510244</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104673</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>141940.3832228851</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>174066.470293212</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>26563.08616012787</v>
+        <v>26563.08616012788</v>
       </c>
       <c r="F4" t="n">
-        <v>26563.08616012787</v>
+        <v>26563.08616012788</v>
       </c>
       <c r="G4" t="n">
         <v>26563.08616012788</v>
@@ -26448,7 +26448,7 @@
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
-        <v>27684.07875020265</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="N4" t="n">
         <v>27684.07875020268</v>
@@ -26457,7 +26457,7 @@
         <v>27684.07875020268</v>
       </c>
       <c r="P4" t="n">
-        <v>27684.07875020263</v>
+        <v>27684.07875020268</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814192</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846977</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26503,10 +26503,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
         <v>77718.23860579252</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74763.76632040966</v>
+        <v>-110317.0670479451</v>
       </c>
       <c r="C6" t="n">
-        <v>67427.5343393003</v>
+        <v>85974.3397693005</v>
       </c>
       <c r="D6" t="n">
-        <v>61662.16102329988</v>
+        <v>103314.8841432071</v>
       </c>
       <c r="E6" t="n">
-        <v>-33205.48085608838</v>
+        <v>28782.17913102729</v>
       </c>
       <c r="F6" t="n">
-        <v>190593.8128959384</v>
+        <v>190517.2543411418</v>
       </c>
       <c r="G6" t="n">
-        <v>190593.8128959385</v>
+        <v>190517.2543411416</v>
       </c>
       <c r="H6" t="n">
-        <v>190593.8128959384</v>
+        <v>190517.2543411416</v>
       </c>
       <c r="I6" t="n">
-        <v>179176.0778901427</v>
+        <v>179152.8535507601</v>
       </c>
       <c r="J6" t="n">
-        <v>86526.32817799208</v>
+        <v>36909.73969798646</v>
       </c>
       <c r="K6" t="n">
-        <v>197540.7935229823</v>
+        <v>183703.5606157544</v>
       </c>
       <c r="L6" t="n">
-        <v>188593.182434472</v>
+        <v>197517.5691835997</v>
       </c>
       <c r="M6" t="n">
-        <v>10749.80691251515</v>
+        <v>62527.62457059623</v>
       </c>
       <c r="N6" t="n">
-        <v>197540.7935229825</v>
+        <v>197517.5691835998</v>
       </c>
       <c r="O6" t="n">
-        <v>197540.7935229824</v>
+        <v>197517.5691835998</v>
       </c>
       <c r="P6" t="n">
-        <v>197540.7935229825</v>
+        <v>197517.5691835998</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314107</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
         <v>1209.199708513939</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.6741497305228</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130639</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825286</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080592</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.6741497305228</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130639</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825286</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.6741497305228</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130639</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825286</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>76.98972707608357</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>72.71868052833514</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>80.49124762227598</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>40.93988592369774</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>33.35105993462366</v>
       </c>
       <c r="W5" t="n">
-        <v>73.13130200746645</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>158.4840525680173</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>52.01701577190849</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>335.5194552998973</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>83.94149472053158</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>44.07191583437682</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>221.7125279979905</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.841056877334</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803904</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.47818213854839</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.46007352745</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>131.4804315655613</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>270.2148169866503</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314107</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314107</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314108</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314107</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>27.75305498978742</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457085</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35416,7 +35416,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>421.9740460140688</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697549</v>
@@ -35489,13 +35489,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>421.9740460140688</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>309.6062697457101</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35665,10 +35665,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35887,25 +35887,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>955.8742281294876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>527.9769957459462</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36604,13 +36604,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>833.0630236930783</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,16 +37230,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37707,13 +37707,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645584</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38178,7 +38178,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
